--- a/TRM.xlsx
+++ b/TRM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C13561E3-6763-49ED-8106-6678E22FDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF47D363-630F-419F-BAEA-CD60495BF84E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C13561E3-6763-49ED-8106-6678E22FDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B42D716-E1F7-40B8-B52B-0174EAB057A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,6 +357,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -644,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA7CCD4-995E-4DFE-9F62-E9B3D491C8F0}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C59" sqref="C59:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,14 +672,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>43496</v>
+        <v>40209</v>
       </c>
       <c r="B2" s="11">
-        <v>3161.91</v>
+        <v>1978.19</v>
       </c>
       <c r="C2">
         <f>YEAR(A2)</f>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D2">
         <f>MONTH(A2)</f>
@@ -684,14 +688,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>43524</v>
+        <v>40237</v>
       </c>
       <c r="B3" s="8">
-        <v>3115.15</v>
+        <v>1952.89</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C59" si="0">YEAR(A3)</f>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D59" si="1">MONTH(A3)</f>
@@ -700,14 +704,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>43555</v>
+        <v>40268</v>
       </c>
       <c r="B4" s="11">
-        <v>3125.34</v>
+        <v>1909.1</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
@@ -716,14 +720,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43585</v>
+        <v>40298</v>
       </c>
       <c r="B5" s="8">
-        <v>3155.22</v>
+        <v>1940.36</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -732,14 +736,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>43616</v>
+        <v>40329</v>
       </c>
       <c r="B6" s="11">
-        <v>3310.49</v>
+        <v>1984.36</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -748,14 +752,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>43646</v>
+        <v>40359</v>
       </c>
       <c r="B7" s="8">
-        <v>3256.02</v>
+        <v>1925.9</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
@@ -764,14 +768,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>43677</v>
+        <v>40390</v>
       </c>
       <c r="B8" s="11">
-        <v>3208.11</v>
+        <v>1874.52</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -780,14 +784,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>43708</v>
+        <v>40421</v>
       </c>
       <c r="B9" s="8">
-        <v>3412.65</v>
+        <v>1819.06</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -796,14 +800,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>43738</v>
+        <v>40451</v>
       </c>
       <c r="B10" s="11">
-        <v>3399.62</v>
+        <v>1805.6</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -812,14 +816,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>43769</v>
+        <v>40482</v>
       </c>
       <c r="B11" s="8">
-        <v>3437.73</v>
+        <v>1808.46</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -828,14 +832,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>43799</v>
+        <v>40512</v>
       </c>
       <c r="B12" s="11">
-        <v>3411.42</v>
+        <v>1863.67</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -844,14 +848,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>43830</v>
+        <v>40543</v>
       </c>
       <c r="B13" s="8">
-        <v>3383</v>
+        <v>1925.86</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -860,14 +864,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>43861</v>
+        <v>40574</v>
       </c>
       <c r="B14" s="11">
-        <v>3317.37</v>
+        <v>1866.64</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -876,14 +880,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>43890</v>
+        <v>40602</v>
       </c>
       <c r="B15" s="8">
-        <v>3408.24</v>
+        <v>1882.61</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -892,14 +896,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>43921</v>
+        <v>40633</v>
       </c>
       <c r="B16" s="11">
-        <v>3870.01</v>
+        <v>1884.38</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -908,14 +912,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>43951</v>
+        <v>40663</v>
       </c>
       <c r="B17" s="8">
-        <v>3986.56</v>
+        <v>1812.77</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -924,14 +928,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>43982</v>
+        <v>40694</v>
       </c>
       <c r="B18" s="11">
-        <v>3863.34</v>
+        <v>1801.65</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -940,14 +944,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>44012</v>
+        <v>40724</v>
       </c>
       <c r="B19" s="8">
-        <v>3693</v>
+        <v>1782.54</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -956,14 +960,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44043</v>
+        <v>40755</v>
       </c>
       <c r="B20" s="11">
-        <v>3660.6</v>
+        <v>1761.75</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -972,14 +976,14 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>44074</v>
+        <v>40786</v>
       </c>
       <c r="B21" s="8">
-        <v>3788.1</v>
+        <v>1785.04</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -988,14 +992,14 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44104</v>
+        <v>40816</v>
       </c>
       <c r="B22" s="11">
-        <v>3749.86</v>
+        <v>1836.15</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -1004,14 +1008,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>44135</v>
+        <v>40847</v>
       </c>
       <c r="B23" s="8">
-        <v>3833.06</v>
+        <v>1910.38</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -1020,14 +1024,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44165</v>
+        <v>40877</v>
       </c>
       <c r="B24" s="11">
-        <v>3680.67</v>
+        <v>1918.21</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -1036,14 +1040,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>44196</v>
+        <v>40908</v>
       </c>
       <c r="B25" s="8">
-        <v>3468.5</v>
+        <v>1934.08</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -1052,14 +1056,14 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44227</v>
+        <v>40939</v>
       </c>
       <c r="B26" s="11">
-        <v>3494.53</v>
+        <v>1852.12</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -1068,14 +1072,14 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>44255</v>
+        <v>40968</v>
       </c>
       <c r="B27" s="8">
-        <v>3552.43</v>
+        <v>1783.56</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -1084,14 +1088,14 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>44286</v>
+        <v>40999</v>
       </c>
       <c r="B28" s="11">
-        <v>3617</v>
+        <v>1766.34</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -1100,14 +1104,14 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>44316</v>
+        <v>41029</v>
       </c>
       <c r="B29" s="8">
-        <v>3651.85</v>
+        <v>1775.06</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -1116,14 +1120,14 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>44347</v>
+        <v>41060</v>
       </c>
       <c r="B30" s="11">
-        <v>3741.96</v>
+        <v>1793.28</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -1132,14 +1136,14 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>44377</v>
+        <v>41090</v>
       </c>
       <c r="B31" s="8">
-        <v>3693</v>
+        <v>1792.63</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -1148,14 +1152,14 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>44408</v>
+        <v>41121</v>
       </c>
       <c r="B32" s="11">
-        <v>3832.24</v>
+        <v>1784.43</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -1164,14 +1168,14 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>44439</v>
+        <v>41152</v>
       </c>
       <c r="B33" s="8">
-        <v>3887.68</v>
+        <v>1806.34</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -1180,14 +1184,14 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>44469</v>
+        <v>41182</v>
       </c>
       <c r="B34" s="11">
-        <v>3820.28</v>
+        <v>1803.18</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -1196,14 +1200,14 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>44500</v>
+        <v>41213</v>
       </c>
       <c r="B35" s="8">
-        <v>3771.68</v>
+        <v>1804.97</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -1212,14 +1216,14 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>44530</v>
+        <v>41243</v>
       </c>
       <c r="B36" s="11">
-        <v>3900.51</v>
+        <v>1820.29</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -1228,14 +1232,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>44561</v>
+        <v>41274</v>
       </c>
       <c r="B37" s="8">
-        <v>3967.77</v>
+        <v>1793.94</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -1244,14 +1248,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>44592</v>
+        <v>41305</v>
       </c>
       <c r="B38" s="11">
-        <v>4000.72</v>
+        <v>1770.01</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -1260,14 +1264,14 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>44620</v>
+        <v>41333</v>
       </c>
       <c r="B39" s="8">
-        <v>3938.36</v>
+        <v>1791.48</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -1276,14 +1280,14 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>44651</v>
+        <v>41364</v>
       </c>
       <c r="B40" s="11">
-        <v>3805.52</v>
+        <v>1809.89</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -1292,14 +1296,14 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>44681</v>
+        <v>41394</v>
       </c>
       <c r="B41" s="8">
-        <v>3796.39</v>
+        <v>1829.96</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -1308,14 +1312,14 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>44712</v>
+        <v>41425</v>
       </c>
       <c r="B42" s="11">
-        <v>4027.6</v>
+        <v>1850.12</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -1324,14 +1328,14 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>44742</v>
+        <v>41455</v>
       </c>
       <c r="B43" s="8">
-        <v>3922.5</v>
+        <v>1909.5</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -1340,14 +1344,14 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>44773</v>
+        <v>41486</v>
       </c>
       <c r="B44" s="11">
-        <v>4394.01</v>
+        <v>1900.59</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -1356,14 +1360,14 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>44804</v>
+        <v>41517</v>
       </c>
       <c r="B45" s="8">
-        <v>4326.7700000000004</v>
+        <v>1903.66</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -1372,14 +1376,14 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>44834</v>
+        <v>41547</v>
       </c>
       <c r="B46" s="11">
-        <v>4437.3100000000004</v>
+        <v>1919.4</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -1388,14 +1392,14 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>44865</v>
+        <v>41578</v>
       </c>
       <c r="B47" s="8">
-        <v>4714.96</v>
+        <v>1885.91</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -1404,14 +1408,14 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>44895</v>
+        <v>41608</v>
       </c>
       <c r="B48" s="11">
-        <v>4922.3</v>
+        <v>1922.14</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -1420,14 +1424,14 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>44926</v>
+        <v>41639</v>
       </c>
       <c r="B49" s="8">
-        <v>4787.8900000000003</v>
+        <v>1934.08</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
@@ -1436,14 +1440,14 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>44957</v>
+        <v>41670</v>
       </c>
       <c r="B50" s="11">
-        <v>4712.18</v>
+        <v>1960.41</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
@@ -1452,14 +1456,14 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>44985</v>
+        <v>41698</v>
       </c>
       <c r="B51" s="8">
-        <v>4802.75</v>
+        <v>2040.51</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -1468,14 +1472,14 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45016</v>
+        <v>41729</v>
       </c>
       <c r="B52" s="11">
-        <v>4760.96</v>
+        <v>2022.19</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -1484,14 +1488,14 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>45046</v>
+        <v>41759</v>
       </c>
       <c r="B53" s="8">
-        <v>4526.03</v>
+        <v>1939.27</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
@@ -1500,14 +1504,14 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45077</v>
+        <v>41790</v>
       </c>
       <c r="B54" s="11">
-        <v>4539.54</v>
+        <v>1915.46</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
@@ -1516,14 +1520,14 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>45107</v>
+        <v>41820</v>
       </c>
       <c r="B55" s="8">
-        <v>4213.53</v>
+        <v>1888.1</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
@@ -1532,14 +1536,14 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45138</v>
+        <v>41851</v>
       </c>
       <c r="B56" s="11">
-        <v>4067.63</v>
+        <v>1858.4</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
@@ -1548,14 +1552,14 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>45169</v>
+        <v>41882</v>
       </c>
       <c r="B57" s="8">
-        <v>4066.87</v>
+        <v>1899.07</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
@@ -1564,14 +1568,14 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45199</v>
+        <v>41912</v>
       </c>
       <c r="B58" s="11">
-        <v>4008.41</v>
+        <v>1971.34</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
@@ -1580,23 +1584,1751 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>45230</v>
+        <v>41943</v>
       </c>
       <c r="B59" s="8">
-        <v>4219.16</v>
+        <v>2047.03</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>41973</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2127.25</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C123" si="2">YEAR(A60)</f>
+        <v>2014</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D123" si="3">MONTH(A60)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>42004</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2344.23</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>42035</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2397.69</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>42063</v>
+      </c>
+      <c r="B63" s="8">
+        <v>2420.38</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>42094</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2586.58</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>42124</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2495.36</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>42155</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2439.09</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>42185</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2554.94</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>42216</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2731.9</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>42247</v>
+      </c>
+      <c r="B69" s="8">
+        <v>3023.29</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>42277</v>
+      </c>
+      <c r="B70" s="11">
+        <v>3073.12</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>42308</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2937.85</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>42338</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2996.67</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>42369</v>
+      </c>
+      <c r="B73" s="8">
+        <v>3244.51</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>42400</v>
+      </c>
+      <c r="B74" s="11">
+        <v>3284.03</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>42429</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3357.5</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>42460</v>
+      </c>
+      <c r="B76" s="11">
+        <v>3145.26</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>42490</v>
+      </c>
+      <c r="B77" s="8">
+        <v>2998.71</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>42521</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2988.38</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>42551</v>
+      </c>
+      <c r="B79" s="8">
+        <v>2991.68</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>42582</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2963.99</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>42613</v>
+      </c>
+      <c r="B81" s="8">
+        <v>2963.82</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>42643</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2921.15</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>42674</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2932.61</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>42704</v>
+      </c>
+      <c r="B84" s="11">
+        <v>3106.4</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>42735</v>
+      </c>
+      <c r="B85" s="8">
+        <v>3009.53</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>42766</v>
+      </c>
+      <c r="B86" s="11">
+        <v>2944.65</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>42794</v>
+      </c>
+      <c r="B87" s="8">
+        <v>2881.68</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>42825</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2943.49</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>42855</v>
+      </c>
+      <c r="B89" s="8">
+        <v>2873.55</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>42886</v>
+      </c>
+      <c r="B90" s="11">
+        <v>2924</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B91" s="8">
+        <v>2958.36</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>42947</v>
+      </c>
+      <c r="B92" s="11">
+        <v>3038.76</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>42978</v>
+      </c>
+      <c r="B93" s="8">
+        <v>2972.62</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>43008</v>
+      </c>
+      <c r="B94" s="11">
+        <v>2918.49</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>43039</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2955.06</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>43069</v>
+      </c>
+      <c r="B96" s="11">
+        <v>3013.17</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>43100</v>
+      </c>
+      <c r="B97" s="8">
+        <v>2991.42</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>43131</v>
+      </c>
+      <c r="B98" s="11">
+        <v>2867.68</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>43159</v>
+      </c>
+      <c r="B99" s="8">
+        <v>2860</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>43190</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2852.46</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>43220</v>
+      </c>
+      <c r="B101" s="8">
+        <v>2765.96</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>43251</v>
+      </c>
+      <c r="B102" s="11">
+        <v>2862.95</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>43281</v>
+      </c>
+      <c r="B103" s="8">
+        <v>2893.22</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>43312</v>
+      </c>
+      <c r="B104" s="11">
+        <v>2885.55</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>43343</v>
+      </c>
+      <c r="B105" s="8">
+        <v>2959.57</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>43373</v>
+      </c>
+      <c r="B106" s="11">
+        <v>3037.8</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>43404</v>
+      </c>
+      <c r="B107" s="8">
+        <v>3080.48</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>43434</v>
+      </c>
+      <c r="B108" s="11">
+        <v>3198.13</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>43465</v>
+      </c>
+      <c r="B109" s="8">
+        <v>3212.48</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>43496</v>
+      </c>
+      <c r="B110" s="11">
+        <v>3161.91</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>43524</v>
+      </c>
+      <c r="B111" s="8">
+        <v>3115.15</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>43555</v>
+      </c>
+      <c r="B112" s="11">
+        <v>3125.34</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>43585</v>
+      </c>
+      <c r="B113" s="8">
+        <v>3155.22</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>43616</v>
+      </c>
+      <c r="B114" s="11">
+        <v>3310.49</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>43646</v>
+      </c>
+      <c r="B115" s="8">
+        <v>3256.02</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>43677</v>
+      </c>
+      <c r="B116" s="11">
+        <v>3208.11</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>43708</v>
+      </c>
+      <c r="B117" s="8">
+        <v>3412.65</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>43738</v>
+      </c>
+      <c r="B118" s="11">
+        <v>3399.62</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>43769</v>
+      </c>
+      <c r="B119" s="8">
+        <v>3437.73</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>43799</v>
+      </c>
+      <c r="B120" s="11">
+        <v>3411.42</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>43830</v>
+      </c>
+      <c r="B121" s="8">
+        <v>3383</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B122" s="11">
+        <v>3317.37</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>43890</v>
+      </c>
+      <c r="B123" s="8">
+        <v>3408.24</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>43921</v>
+      </c>
+      <c r="B124" s="11">
+        <v>3870.01</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124:C167" si="4">YEAR(A124)</f>
+        <v>2020</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ref="D124:D167" si="5">MONTH(A124)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>43951</v>
+      </c>
+      <c r="B125" s="8">
+        <v>3986.56</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>43982</v>
+      </c>
+      <c r="B126" s="11">
+        <v>3863.34</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>44012</v>
+      </c>
+      <c r="B127" s="8">
+        <v>3693</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>44043</v>
+      </c>
+      <c r="B128" s="11">
+        <v>3660.6</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>44074</v>
+      </c>
+      <c r="B129" s="8">
+        <v>3788.1</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>44104</v>
+      </c>
+      <c r="B130" s="11">
+        <v>3749.86</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>44135</v>
+      </c>
+      <c r="B131" s="8">
+        <v>3833.06</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>44165</v>
+      </c>
+      <c r="B132" s="11">
+        <v>3680.67</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>44196</v>
+      </c>
+      <c r="B133" s="8">
+        <v>3468.5</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>44227</v>
+      </c>
+      <c r="B134" s="11">
+        <v>3494.53</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>44255</v>
+      </c>
+      <c r="B135" s="8">
+        <v>3552.43</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>44286</v>
+      </c>
+      <c r="B136" s="11">
+        <v>3617</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>44316</v>
+      </c>
+      <c r="B137" s="8">
+        <v>3651.85</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>44347</v>
+      </c>
+      <c r="B138" s="11">
+        <v>3741.96</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>44377</v>
+      </c>
+      <c r="B139" s="8">
+        <v>3693</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>44408</v>
+      </c>
+      <c r="B140" s="11">
+        <v>3832.24</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>44439</v>
+      </c>
+      <c r="B141" s="8">
+        <v>3887.68</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>44469</v>
+      </c>
+      <c r="B142" s="11">
+        <v>3820.28</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>44500</v>
+      </c>
+      <c r="B143" s="8">
+        <v>3771.68</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>44530</v>
+      </c>
+      <c r="B144" s="11">
+        <v>3900.51</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>44561</v>
+      </c>
+      <c r="B145" s="8">
+        <v>3967.77</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>2021</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>44592</v>
+      </c>
+      <c r="B146" s="11">
+        <v>4000.72</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>44620</v>
+      </c>
+      <c r="B147" s="8">
+        <v>3938.36</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>44651</v>
+      </c>
+      <c r="B148" s="11">
+        <v>3805.52</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B149" s="8">
+        <v>3796.39</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>44712</v>
+      </c>
+      <c r="B150" s="11">
+        <v>4027.6</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>44742</v>
+      </c>
+      <c r="B151" s="8">
+        <v>3922.5</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>44773</v>
+      </c>
+      <c r="B152" s="11">
+        <v>4394.01</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>44804</v>
+      </c>
+      <c r="B153" s="8">
+        <v>4326.7700000000004</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>44834</v>
+      </c>
+      <c r="B154" s="11">
+        <v>4437.3100000000004</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B155" s="8">
+        <v>4714.96</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>44895</v>
+      </c>
+      <c r="B156" s="11">
+        <v>4922.3</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>44926</v>
+      </c>
+      <c r="B157" s="8">
+        <v>4787.8900000000003</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>44957</v>
+      </c>
+      <c r="B158" s="11">
+        <v>4712.18</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B159" s="8">
+        <v>4802.75</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>45016</v>
+      </c>
+      <c r="B160" s="11">
+        <v>4760.96</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>45046</v>
+      </c>
+      <c r="B161" s="8">
+        <v>4526.03</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>45077</v>
+      </c>
+      <c r="B162" s="11">
+        <v>4539.54</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>45107</v>
+      </c>
+      <c r="B163" s="8">
+        <v>4213.53</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>45138</v>
+      </c>
+      <c r="B164" s="11">
+        <v>4067.63</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>45169</v>
+      </c>
+      <c r="B165" s="8">
+        <v>4066.87</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>45199</v>
+      </c>
+      <c r="B166" s="11">
+        <v>4008.41</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>45230</v>
+      </c>
+      <c r="B167" s="8">
+        <v>4219.16</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{2CA7CCD4-995E-4DFE-9F62-E9B3D491C8F0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1608,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C399"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B66"/>
+    <sheetView showGridLines="0" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
